--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122076.613971558</v>
+        <v>4120196.434201231</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7470944.13320224</v>
+        <v>7470944.133202241</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30.54110646053125</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>177.9364581348098</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>74.63726593212216</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>67.3378365078426</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051981</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>24.29718497126791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.40955656862214</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>172.7067178467369</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>70.85949911216206</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.41761368552105</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.007706366896343</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H22" t="n">
-        <v>70.41761368552103</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808131</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578918</v>
@@ -2293,16 +2293,16 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808131</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>1.75020512828309</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552126</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.61824669615952</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
         <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.0969919981166</v>
@@ -2776,10 +2776,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>116.2407940247469</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.41761368552073</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.05682971998463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.649772640952</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>747.8615200427075</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8756152531</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>400.6823320653275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>253.7923845674171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1702.337823625994</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.072125019244</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>958.2838724209994</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>547.2979676313919</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>129.3341595295788</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3341595295788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5036,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>400.2445180358629</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1014.141587792752</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765185</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706317</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>506.8551071885429</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>835.4163915387937</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>835.4163915387937</v>
+        <v>820.5263570570731</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018332</v>
+        <v>531.1091870201126</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220952</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>303.1196361220952</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K19" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P19" t="n">
         <v>1536.594541272927</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1414.86004704719</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1202.22680489297</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449757</v>
+        <v>924.2503391628027</v>
       </c>
       <c r="V19" t="n">
-        <v>663.448368995363</v>
+        <v>680.71802401319</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146766</v>
+        <v>680.71802401319</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729334</v>
+        <v>463.8806461714469</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729336</v>
+        <v>393.0291468394981</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729336</v>
+        <v>391.0011606103099</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729336</v>
+        <v>391.0011606103099</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729336</v>
+        <v>254.240240084191</v>
       </c>
       <c r="F22" t="n">
-        <v>168.3459941729336</v>
+        <v>254.240240084191</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,16 +5911,16 @@
         <v>120.5300287366501</v>
       </c>
       <c r="K22" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L22" t="n">
         <v>540.2879676172995</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O22" t="n">
         <v>1349.06453185479</v>
@@ -5929,31 +5929,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647464</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493244</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449758</v>
+        <v>807.0577537630761</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953631</v>
+        <v>563.5254386134636</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146767</v>
+        <v>563.5254386134636</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729336</v>
+        <v>563.5254386134636</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729336</v>
+        <v>563.5254386134636</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>393.96556768798</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6145,19 +6145,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O25" t="n">
         <v>1349.06453185479</v>
@@ -6166,31 +6166,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449758</v>
+        <v>1295.8995776795</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953631</v>
+        <v>1052.367262529888</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146767</v>
+        <v>774.1022655492013</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729336</v>
+        <v>774.1022655492013</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.4618594619454</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>508.6802527841027</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="C28" t="n">
-        <v>508.6802527841027</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D28" t="n">
-        <v>369.715786428041</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>232.9548659019221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937155</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1373.724986903316</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>1095.748521173149</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V28" t="n">
-        <v>852.216206023536</v>
+        <v>841.50190434363</v>
       </c>
       <c r="W28" t="n">
-        <v>573.9512090428497</v>
+        <v>563.2369073629436</v>
       </c>
       <c r="X28" t="n">
-        <v>573.9512090428497</v>
+        <v>445.8219639036033</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.9512090428497</v>
+        <v>236.1815578163474</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6443,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>453.8079629081075</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>453.8079629081075</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>314.843496552046</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259269</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259269</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259269</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259269</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,49 +6622,49 @@
         <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1397.590392029364</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1184.957149875144</v>
       </c>
       <c r="U31" t="n">
-        <v>906.980684144975</v>
+        <v>906.9806841449761</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953623</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146759</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="X31" t="n">
-        <v>168.345994172933</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.345994172933</v>
+        <v>453.8079629081075</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649682</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,34 +7111,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7181,40 +7181,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,16 +7333,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649684</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7421,37 +7421,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>113.6026921294542</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>182.0340742867952</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>297.3877236703346</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599077</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>262.2258133653231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.4224236133151</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.84084321165208</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.0206595457297</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.1263883408623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>154.19846340602</v>
       </c>
       <c r="D22" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.45556335630364</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856053</v>
+        <v>99.3785941385605</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
         <v>207.5440020263833</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>135.3933113208577</v>
@@ -24379,10 +24379,10 @@
         <v>155.4529171376661</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385605</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>273.4464959445829</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.1730821600664</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>98.42821003857881</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.37371517070517</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I31" t="n">
-        <v>99.3785941385606</v>
+        <v>19.32176441857588</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808141</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632377.7105480877</v>
+        <v>632377.7105480878</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657694.1855411147</v>
+        <v>657694.1855411148</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554812</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="H2" t="n">
-        <v>768665.9667554812</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554809</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="K2" t="n">
-        <v>768665.9667554812</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176765</v>
       </c>
       <c r="N2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="O2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="P2" t="n">
         <v>800515.7256176765</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800515.7256176766</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569132</v>
+        <v>8832.521060569183</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>22174.60758687074</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>25807.53208971004</v>
+      </c>
+      <c r="H4" t="n">
         <v>25807.53208971005</v>
       </c>
-      <c r="H4" t="n">
-        <v>25807.53208971003</v>
-      </c>
       <c r="I4" t="n">
-        <v>25807.53208971003</v>
+        <v>25807.53208971004</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208971007</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971005</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
@@ -26491,16 +26491,16 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680211</v>
+        <v>-37944.09944680202</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677423</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760489</v>
+        <v>123087.2373500766</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529448</v>
+        <v>648247.273826973</v>
       </c>
       <c r="G6" t="n">
-        <v>641110.4111401843</v>
+        <v>641028.7450918199</v>
       </c>
       <c r="H6" t="n">
-        <v>649942.9322007534</v>
+        <v>649861.266152389</v>
       </c>
       <c r="I6" t="n">
-        <v>649942.9322007535</v>
+        <v>649861.2661523891</v>
       </c>
       <c r="J6" t="n">
-        <v>473519.71300816</v>
+        <v>473438.0469597961</v>
       </c>
       <c r="K6" t="n">
-        <v>649942.9322007534</v>
+        <v>649861.2661523891</v>
       </c>
       <c r="L6" t="n">
-        <v>603701.7128657476</v>
+        <v>603701.7128657475</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.2097356229</v>
+        <v>523406.209735623</v>
       </c>
       <c r="N6" t="n">
-        <v>658207.22496946</v>
+        <v>658207.2249694599</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694598</v>
+        <v>658207.2249694597</v>
       </c>
       <c r="P6" t="n">
-        <v>658207.22496946</v>
+        <v>658207.2249694599</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="N2" t="n">
+        <v>68.13189012964071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>125.6297823812639</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7973835286708</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>77.29405031273909</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>339.5382092338688</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="H31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="I31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="L31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="N31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="O31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="P31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="R31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="S31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="T31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="U31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="V31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="W31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="X31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571148</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,7 +35489,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>264.1781307173934</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35504,13 +35504,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>515.228647684808</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127696</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M19" t="n">
         <v>285.350492504684</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127701</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L22" t="n">
         <v>261.25483820564</v>
@@ -36288,16 +36288,16 @@
         <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127701</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L25" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>504.4811386018593</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>383.8211928074494</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127692</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37166,10 +37166,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502078</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37640,7 +37640,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450414</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
